--- a/ProductData.xlsx
+++ b/ProductData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1af26760aa362513/Tiedostot/UiPath/ProductUploadAutomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{B7D1A088-2479-4CFB-AD55-208E4B94070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9212604C-5FBD-476F-B341-AE229A5B7CF6}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{B7D1A088-2479-4CFB-AD55-208E4B94070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F89D13A-DD0B-4FEE-893C-9A27B81BFF15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{53F87FB0-6397-4D54-BD6D-FBE78B755981}"/>
   </bookViews>
@@ -855,7 +855,7 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
